--- a/trials_data.xlsx
+++ b/trials_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B912F8A-8547-4DD2-88BF-EC46F7649C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBA2EE-DF65-4E94-B9BA-D7831226A26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Inclusion</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>ANCA associated vasculitis</t>
   </si>
   <si>
-    <t>ANCA titres predict relaplse</t>
-  </si>
-  <si>
     <t>ANCA</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
     <t>Metformin vs Placebo</t>
   </si>
   <si>
@@ -164,16 +155,25 @@
     <t>Haemodilaysis</t>
   </si>
   <si>
-    <t>Particpants</t>
-  </si>
-  <si>
     <t>IgA Nephropathy</t>
   </si>
   <si>
-    <t>Glomerularnephritis</t>
-  </si>
-  <si>
     <t>normal vs tight phosphate control</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>Study Design</t>
+  </si>
+  <si>
+    <t>Observational: ANCA titres predict relaplse</t>
+  </si>
+  <si>
+    <t>Glomerulonephritis</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,18 +698,18 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -719,96 +719,84 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>8</v>
@@ -816,85 +804,83 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
@@ -902,80 +888,78 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>20</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/trials_data.xlsx
+++ b/trials_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBA2EE-DF65-4E94-B9BA-D7831226A26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E319EC-4AB4-437F-B46E-88756B170A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
   </bookViews>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -319,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -346,6 +352,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -685,7 +694,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,8 +702,7 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,7 +806,7 @@
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7"/>
@@ -858,7 +866,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>

--- a/trials_data.xlsx
+++ b/trials_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E319EC-4AB4-437F-B46E-88756B170A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC62A294-6099-4A96-A4F2-B0B33788E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t xml:space="preserve">   PI</t>
   </si>
@@ -50,24 +50,12 @@
     <t>ACHIEVE</t>
   </si>
   <si>
-    <t>AFFINITY</t>
-  </si>
-  <si>
     <t>AHUS</t>
   </si>
   <si>
-    <t>ALIGN</t>
-  </si>
-  <si>
-    <t>ALXN1210-202</t>
-  </si>
-  <si>
     <t>ALXN1210-IGAN</t>
   </si>
   <si>
-    <t>BI 1434-0004</t>
-  </si>
-  <si>
     <t>DOAC-APAXANS</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>EOS, SC</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
     <t>Metformin vs Placebo</t>
   </si>
   <si>
@@ -143,24 +128,15 @@
     <t>Machines LN</t>
   </si>
   <si>
-    <t>biomarkers in lupus</t>
-  </si>
-  <si>
     <t>Lupus Nephritis</t>
   </si>
   <si>
-    <t>SGTL2i in HD</t>
-  </si>
-  <si>
     <t>Haemodilaysis</t>
   </si>
   <si>
     <t>IgA Nephropathy</t>
   </si>
   <si>
-    <t>normal vs tight phosphate control</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -174,6 +150,27 @@
   </si>
   <si>
     <t>Glomerulonephritis</t>
+  </si>
+  <si>
+    <t>SC,EOC</t>
+  </si>
+  <si>
+    <t>MW,EOS</t>
+  </si>
+  <si>
+    <t>MN,MW</t>
+  </si>
+  <si>
+    <t>SGTL2i vs placebo</t>
+  </si>
+  <si>
+    <t>Observational: Biomarkers for lupus</t>
+  </si>
+  <si>
+    <t>Normal vs tight phosphate control</t>
+  </si>
+  <si>
+    <t>Aytpical HUS</t>
   </si>
 </sst>
 </file>
@@ -691,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E24B5D-7F74-4768-8F81-B912EF27AEF9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,16 +705,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -727,16 +724,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -746,228 +749,188 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/trials_data.xlsx
+++ b/trials_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC62A294-6099-4A96-A4F2-B0B33788E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94209C4C-FD09-4440-87FB-FFDE646E4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
+    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t xml:space="preserve">   PI</t>
   </si>
@@ -113,9 +113,6 @@
     <t>EOS</t>
   </si>
   <si>
-    <t>EOS, SC</t>
-  </si>
-  <si>
     <t>Metformin vs Placebo</t>
   </si>
   <si>
@@ -171,6 +168,54 @@
   </si>
   <si>
     <t>Aytpical HUS</t>
+  </si>
+  <si>
+    <t>AFFINITY</t>
+  </si>
+  <si>
+    <t>MW,MN</t>
+  </si>
+  <si>
+    <t>ALIGN</t>
+  </si>
+  <si>
+    <t>REGISTRY</t>
+  </si>
+  <si>
+    <t>Australian Lupus Registry</t>
+  </si>
+  <si>
+    <t>New Start HD</t>
+  </si>
+  <si>
+    <t>Bio-Kid</t>
+  </si>
+  <si>
+    <t>Renal Biopsy</t>
+  </si>
+  <si>
+    <t>Sense-CKD</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>Basic science: Urine</t>
+  </si>
+  <si>
+    <t>High risk CKD</t>
+  </si>
+  <si>
+    <t>Any Renal Disease</t>
+  </si>
+  <si>
+    <t>EOS, SC, KH</t>
+  </si>
+  <si>
+    <t>Incremental start to HD</t>
+  </si>
+  <si>
+    <t>Repository</t>
   </si>
 </sst>
 </file>
@@ -236,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,11 +363,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -352,6 +408,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E24B5D-7F74-4768-8F81-B912EF27AEF9}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,16 +767,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -756,181 +818,266 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>40</v>
+    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/trials_data.xlsx
+++ b/trials_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoind\Dropbox\R projects\nephromancer.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94209C4C-FD09-4440-87FB-FFDE646E4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E291D1B-90B8-485F-BF94-3C0E9F7585C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2220" windowWidth="29040" windowHeight="15720" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F18D2705-FD33-46BA-A19C-AFE36BC6D21D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t xml:space="preserve">   PI</t>
   </si>
@@ -44,18 +44,9 @@
     <t xml:space="preserve">    SUB PI</t>
   </si>
   <si>
-    <t>AbbVie ADPKD Study_M25-147</t>
-  </si>
-  <si>
     <t>ACHIEVE</t>
   </si>
   <si>
-    <t>AHUS</t>
-  </si>
-  <si>
-    <t>ALXN1210-IGAN</t>
-  </si>
-  <si>
     <t>DOAC-APAXANS</t>
   </si>
   <si>
@@ -216,13 +207,55 @@
   </si>
   <si>
     <t>Repository</t>
+  </si>
+  <si>
+    <t>ADPKD, no tolvaptan (mid 2025)</t>
+  </si>
+  <si>
+    <t>AbbVie_M25-147</t>
+  </si>
+  <si>
+    <t>ABBV-CLS-628 vs control</t>
+  </si>
+  <si>
+    <t>IGAN, progressive</t>
+  </si>
+  <si>
+    <t>Atrasentan vs control</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>AHUS Registry</t>
+  </si>
+  <si>
+    <t>primary hyperaxolauria</t>
+  </si>
+  <si>
+    <t>CSR-PHXC single arm</t>
+  </si>
+  <si>
+    <t>Ravulizumab vs Control</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>spiro vs control</t>
+  </si>
+  <si>
+    <t>FSGS</t>
+  </si>
+  <si>
+    <t>ICAN - ALXN1210-IGAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,44 +264,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -386,34 +400,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,31 +764,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E24B5D-7F74-4768-8F81-B912EF27AEF9}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32" style="3" customWidth="1"/>
+    <col min="4" max="5" width="34.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -785,299 +798,331 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>24</v>
+      <c r="E18" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
